--- a/Data/second_datadet.xlsx
+++ b/Data/second_datadet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{703E29E7-C957-422D-BAB2-04C425D1C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{703E29E7-C957-422D-BAB2-04C425D1C1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E544BF71-25F3-47A3-8579-4ED93D7F7028}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6999DCB-86E6-4B73-B910-0ADE99FF0863}"/>
   </bookViews>
@@ -9408,11 +9408,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927F7924-166E-4D75-BC20-94EB4EB9EFC0}">
   <dimension ref="A1:F1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1473" workbookViewId="0">
-      <selection sqref="A1:F1501"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
